--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,65</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 23,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,97; 36,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,99; 15,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,54; 28,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 15,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,55; 27,47</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>290,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>585,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>320,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>411,69%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,69; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,71; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,04; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,78; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,16; 795,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>115,26; 1360,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,18; 32,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 7,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,64; 28,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 6,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,63; 28,22</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>425,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>439,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>431,34%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 239,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>216,15; 834,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,26; 192,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>212,38; 860,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 168,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>261,96; 717,33</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,35</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,97; 51,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 2,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,94; 24,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 2,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,29; 38,17</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>398,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>216,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>301,89%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,0; 102,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,61; 782,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,4; 36,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>130,9; 351,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,07; 32,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>198,6; 473,18</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 5,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,54; 28,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 2,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 17,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 2,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 19,94</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,12%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,82; 71,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,9; 361,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,47; 42,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,41; 230,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,33; 35,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,13; 234,36</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,77</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 7,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,12; 36,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 4,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,94; 32,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,11; 33,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>264,43%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>459,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>346,47%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,81; 88,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>176,69; 429,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,25; 110,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>280,21; 728,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 69,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>240,7; 470,78</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,98</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,6</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 4,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,42; 36,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 1,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,38; 23,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 2,66</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,09; 27,78</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>292,51%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 58,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,5; 414,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,54; 29,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>194,26; 380,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,98; 34,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>232,81; 358,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,89</t>
+          <t>25,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,91</t>
+          <t>22,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,65</t>
+          <t>23,73</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 23,68</t>
+          <t>0,73; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 36,43</t>
+          <t>19,96; 30,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 15,57</t>
+          <t>-0,85; 7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 28,12</t>
+          <t>18,26; 26,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 15,83</t>
+          <t>1,02; 7,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 27,47</t>
+          <t>20,39; 26,9</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290,01%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>585,44%</t>
+          <t>444,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,56%</t>
+          <t>57,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>320,78%</t>
+          <t>411,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>152,52%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>411,69%</t>
+          <t>426,86%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,69; —</t>
+          <t>8,09; 292,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,71; —</t>
+          <t>241,2; 828,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,04; —</t>
+          <t>-19,86; 194,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,78; —</t>
+          <t>210,96; 683,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 795,63</t>
+          <t>13,41; 169,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>115,26; 1360,0</t>
+          <t>282,66; 667,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,66</t>
+          <t>51,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,46</t>
+          <t>20,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,46</t>
+          <t>38,91</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 8,94</t>
+          <t>-3,32; 6,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,2</t>
+          <t>25,14; 78,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 7,01</t>
+          <t>-5,9; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,64; 28,38</t>
+          <t>15,73; 24,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 6,91</t>
+          <t>-3,44; 2,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,63; 28,22</t>
+          <t>22,39; 64,1</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>425,23%</t>
+          <t>599,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>-21,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>439,18%</t>
+          <t>214,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,7%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>431,34%</t>
+          <t>429,57%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 239,69</t>
+          <t>-30,0; 102,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>216,15; 834,48</t>
+          <t>258,2; 1529,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 192,51</t>
+          <t>-50,4; 36,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>212,38; 860,62</t>
+          <t>129,06; 347,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 168,15</t>
+          <t>-33,07; 32,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>261,96; 717,33</t>
+          <t>228,48; 884,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>34,23</t>
+          <t>21,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,35</t>
+          <t>11,67</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,14</t>
+          <t>-6,81; 5,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,97; 51,07</t>
+          <t>14,81; 28,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,38</t>
+          <t>-7,02; 2,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,94; 24,63</t>
+          <t>-7,07; 16,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,4</t>
+          <t>-4,85; 2,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,29; 38,17</t>
+          <t>-1,81; 19,81</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>398,34%</t>
+          <t>186,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>-24,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>216,78%</t>
+          <t>59,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>301,89%</t>
+          <t>114,14%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 102,24</t>
+          <t>-43,82; 71,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>224,61; 782,99</t>
+          <t>94,18; 363,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 36,56</t>
+          <t>-58,47; 42,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>130,9; 351,48</t>
+          <t>-57,68; 206,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 32,53</t>
+          <t>-39,33; 35,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>198,6; 473,18</t>
+          <t>-9,39; 213,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,54</t>
+          <t>31,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>28,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>29,97</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,59</t>
+          <t>-2,36; 7,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 28,17</t>
+          <t>26,38; 37,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,6</t>
+          <t>-2,27; 4,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 17,09</t>
+          <t>23,91; 32,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,84</t>
+          <t>-0,99; 4,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 19,94</t>
+          <t>26,24; 33,23</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>184,4%</t>
+          <t>266,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-24,39%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,28%</t>
+          <t>458,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,77%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>143,12%</t>
+          <t>348,75%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 71,22</t>
+          <t>-16,81; 88,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>92,9; 361,94</t>
+          <t>177,88; 432,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 42,64</t>
+          <t>-30,25; 110,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 230,68</t>
+          <t>277,96; 726,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 35,72</t>
+          <t>-9,08; 69,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,13; 234,36</t>
+          <t>241,88; 474,63</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>31,28</t>
+          <t>36,12</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,35</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,77</t>
+          <t>27,4</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 7,78</t>
+          <t>-0,38; 4,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,12; 36,9</t>
+          <t>25,89; 58,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,87</t>
+          <t>-2,1; 1,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,94; 32,28</t>
+          <t>10,63; 23,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,95</t>
+          <t>-0,63; 2,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,11; 33,06</t>
+          <t>20,74; 40,38</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>264,43%</t>
+          <t>379,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>459,02%</t>
+          <t>253,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>346,47%</t>
+          <t>325,88%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 88,93</t>
+          <t>-4,16; 58,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>176,69; 429,2</t>
+          <t>252,0; 738,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 110,84</t>
+          <t>-25,54; 29,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>280,21; 728,36</t>
+          <t>141,61; 345,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 69,32</t>
+          <t>-6,98; 34,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>240,7; 470,78</t>
+          <t>235,28; 492,18</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>28,98</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>20,77</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>24,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 4,77</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>25,42; 36,0</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 1,92</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>15,38; 23,57</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 2,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>21,09; 27,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>23,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>304,16%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,32%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>276,9%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>12,81%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>292,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 58,01</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>224,5; 414,82</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-25,54; 29,36</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>194,26; 380,05</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 34,72</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>232,81; 358,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 9,99</t>
+          <t>0,61; 10,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,96; 30,72</t>
+          <t>19,37; 30,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,47</t>
+          <t>-0,92; 7,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,26; 26,24</t>
+          <t>18,01; 26,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,1</t>
+          <t>1,08; 7,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 26,9</t>
+          <t>20,1; 27,09</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 292,59</t>
+          <t>3,22; 264,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>241,2; 828,61</t>
+          <t>230,58; 840,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 194,61</t>
+          <t>-15,19; 191,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210,96; 683,66</t>
+          <t>215,3; 729,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 169,17</t>
+          <t>15,8; 173,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>282,66; 667,87</t>
+          <t>270,12; 693,69</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,14</t>
+          <t>-3,64; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,14; 78,58</t>
+          <t>25,89; 78,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 2,38</t>
+          <t>-5,96; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 24,38</t>
+          <t>15,57; 24,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 2,4</t>
+          <t>-3,51; 2,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,39; 64,1</t>
+          <t>22,3; 62,94</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 102,24</t>
+          <t>-33,52; 86,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>258,2; 1529,43</t>
+          <t>281,87; 1745,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 36,56</t>
+          <t>-51,21; 27,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>129,06; 347,48</t>
+          <t>126,93; 363,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 32,53</t>
+          <t>-32,12; 36,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>228,48; 884,76</t>
+          <t>230,2; 846,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,59</t>
+          <t>-6,7; 5,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 28,26</t>
+          <t>15,22; 28,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 2,6</t>
+          <t>-6,81; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 16,73</t>
+          <t>-6,27; 16,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,84</t>
+          <t>-5,14; 2,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 19,81</t>
+          <t>-0,98; 20,36</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 71,22</t>
+          <t>-43,43; 68,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,18; 363,58</t>
+          <t>88,28; 340,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,47; 42,64</t>
+          <t>-60,07; 36,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 206,51</t>
+          <t>-52,0; 207,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 35,72</t>
+          <t>-41,5; 30,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 213,35</t>
+          <t>-7,52; 220,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 7,78</t>
+          <t>-2,61; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,38; 37,23</t>
+          <t>26,4; 37,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 4,87</t>
+          <t>-2,54; 5,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,91; 32,19</t>
+          <t>24,59; 32,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,95</t>
+          <t>-1,11; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,24; 33,23</t>
+          <t>26,65; 33,12</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 88,93</t>
+          <t>-17,91; 85,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>177,88; 432,54</t>
+          <t>168,5; 418,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 110,84</t>
+          <t>-31,98; 106,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>277,96; 726,12</t>
+          <t>289,8; 751,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 69,32</t>
+          <t>-11,12; 73,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>241,88; 474,63</t>
+          <t>241,9; 481,07</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,77</t>
+          <t>-0,22; 4,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25,89; 58,27</t>
+          <t>26,39; 56,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,92</t>
+          <t>-1,92; 1,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,63; 23,24</t>
+          <t>10,15; 23,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,66</t>
+          <t>-0,68; 2,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,74; 40,38</t>
+          <t>21,08; 40,55</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 58,01</t>
+          <t>-2,36; 57,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>252,0; 738,16</t>
+          <t>260,36; 647,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 29,36</t>
+          <t>-22,95; 27,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141,61; 345,24</t>
+          <t>137,19; 336,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 34,72</t>
+          <t>-7,29; 34,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>235,28; 492,18</t>
+          <t>234,27; 487,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P44-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P44-Habitat-trans_camb.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
